--- a/models/tests/results_bounds.xlsx
+++ b/models/tests/results_bounds.xlsx
@@ -527,13 +527,13 @@
         <v>-441003.5953130126</v>
       </c>
       <c r="C5" t="n">
-        <v>5516996.404686987</v>
+        <v>-441003.5953130126</v>
       </c>
       <c r="D5" t="n">
-        <v>5516996.404686987</v>
+        <v>-441003.5953130126</v>
       </c>
       <c r="E5" t="n">
-        <v>5516996.404686987</v>
+        <v>-441003.5953130126</v>
       </c>
     </row>
     <row r="6">
@@ -755,13 +755,13 @@
         <v>-4134175.702280757</v>
       </c>
       <c r="C17" t="n">
-        <v>-3384599.702280757</v>
+        <v>-4134175.702280757</v>
       </c>
       <c r="D17" t="n">
-        <v>-3384599.702280757</v>
+        <v>-4134175.702280757</v>
       </c>
       <c r="E17" t="n">
-        <v>-3384599.702280753</v>
+        <v>-4134175.702280753</v>
       </c>
     </row>
     <row r="18">
@@ -853,7 +853,7 @@
         <v>287.1054198927933</v>
       </c>
       <c r="D22" t="n">
-        <v>3957.979999999997</v>
+        <v>287.1054198927933</v>
       </c>
       <c r="E22" t="n">
         <v>287.1054198927933</v>
@@ -1192,13 +1192,13 @@
         <v>-294070</v>
       </c>
       <c r="C40" t="n">
-        <v>-294060</v>
+        <v>-294070</v>
       </c>
       <c r="D40" t="n">
-        <v>-2899.252787650353</v>
+        <v>-294070</v>
       </c>
       <c r="E40" t="n">
-        <v>-294059.9999999999</v>
+        <v>-294069.9999999999</v>
       </c>
     </row>
     <row r="41">
@@ -1461,7 +1461,7 @@
         <v>-8471.957300266935</v>
       </c>
       <c r="D54" t="n">
-        <v>-8471.957300266935</v>
+        <v>-8471.957300271906</v>
       </c>
       <c r="E54" t="n">
         <v>-8471.957300271079</v>

--- a/models/tests/results_bounds.xlsx
+++ b/models/tests/results_bounds.xlsx
@@ -473,7 +473,7 @@
         <v>-17706.43003686583</v>
       </c>
       <c r="D2" t="n">
-        <v>-17706.43003686583</v>
+        <v>-17706.42996844651</v>
       </c>
       <c r="E2" t="n">
         <v>-17706.43003686582</v>
@@ -549,7 +549,7 @@
         <v>-79.34129244444443</v>
       </c>
       <c r="D6" t="n">
-        <v>-79.34129244444443</v>
+        <v>-79.34129326104059</v>
       </c>
       <c r="E6" t="n">
         <v>-79.34129244444443</v>
@@ -606,7 +606,7 @@
         <v>-40561.57388394256</v>
       </c>
       <c r="D9" t="n">
-        <v>-40561.57388394256</v>
+        <v>-40561.57527919208</v>
       </c>
       <c r="E9" t="n">
         <v>-40561.57388394258</v>
@@ -644,7 +644,7 @@
         <v>3359.468359151509</v>
       </c>
       <c r="D11" t="n">
-        <v>3359.468359151509</v>
+        <v>3359.468439471032</v>
       </c>
       <c r="E11" t="n">
         <v>3359.468359151509</v>
@@ -663,7 +663,7 @@
         <v>-82.03786165489406</v>
       </c>
       <c r="D12" t="n">
-        <v>-82.03786165489406</v>
+        <v>-82.03786076364059</v>
       </c>
       <c r="E12" t="n">
         <v>-82.03786165489404</v>
@@ -720,7 +720,7 @@
         <v>0.1086622782067569</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1086622782067569</v>
+        <v>0.1086622793651117</v>
       </c>
       <c r="E15" t="n">
         <v>0.1086622782067568</v>
@@ -739,7 +739,7 @@
         <v>-251.3659705248459</v>
       </c>
       <c r="D16" t="n">
-        <v>-251.3659705248459</v>
+        <v>-251.365965457714</v>
       </c>
       <c r="E16" t="n">
         <v>-251.3659705248451</v>
@@ -758,7 +758,7 @@
         <v>-4134175.702280757</v>
       </c>
       <c r="D17" t="n">
-        <v>-4134175.702280757</v>
+        <v>-4134175.700986942</v>
       </c>
       <c r="E17" t="n">
         <v>-4134175.702280753</v>
@@ -777,7 +777,7 @@
         <v>-2899.252787650353</v>
       </c>
       <c r="D18" t="n">
-        <v>-2899.252787650353</v>
+        <v>-2899.252858400625</v>
       </c>
       <c r="E18" t="n">
         <v>-2899.252787650346</v>
@@ -796,7 +796,7 @@
         <v>58793.82270063066</v>
       </c>
       <c r="D19" t="n">
-        <v>58793.82270063066</v>
+        <v>58793.82269739069</v>
       </c>
       <c r="E19" t="n">
         <v>58793.82270063068</v>
@@ -834,7 +834,7 @@
         <v>107.75130690582</v>
       </c>
       <c r="D21" t="n">
-        <v>107.75130690582</v>
+        <v>107.7513057861328</v>
       </c>
       <c r="E21" t="n">
         <v>107.75130690582</v>
@@ -872,7 +872,7 @@
         <v>0.598697460017654</v>
       </c>
       <c r="D23" t="n">
-        <v>0.598697460017654</v>
+        <v>0.5986974284308934</v>
       </c>
       <c r="E23" t="n">
         <v>0.5986974600176527</v>
@@ -891,7 +891,7 @@
         <v>-901.1615649675498</v>
       </c>
       <c r="D24" t="n">
-        <v>-901.1615649675496</v>
+        <v>-901.1615849481411</v>
       </c>
       <c r="E24" t="n">
         <v>-901.1615649675495</v>
@@ -910,7 +910,7 @@
         <v>-114.03973</v>
       </c>
       <c r="D25" t="n">
-        <v>-114.03973</v>
+        <v>-114.0397301113129</v>
       </c>
       <c r="E25" t="n">
         <v>-114.03973</v>
@@ -1024,7 +1024,7 @@
         <v>27569.59889714957</v>
       </c>
       <c r="D31" t="n">
-        <v>27569.59889714957</v>
+        <v>27569.59868124093</v>
       </c>
       <c r="E31" t="n">
         <v>27569.59889714959</v>
@@ -1043,7 +1043,7 @@
         <v>538.8112039829658</v>
       </c>
       <c r="D32" t="n">
-        <v>538.8112039829658</v>
+        <v>538.8111950953173</v>
       </c>
       <c r="E32" t="n">
         <v>538.8112039829658</v>
@@ -1100,7 +1100,7 @@
         <v>-3385.433032521477</v>
       </c>
       <c r="D35" t="n">
-        <v>-3385.433032521477</v>
+        <v>-3385.433020400034</v>
       </c>
       <c r="E35" t="n">
         <v>-3385.433032521478</v>
@@ -1119,7 +1119,7 @@
         <v>3622021.391884703</v>
       </c>
       <c r="D36" t="n">
-        <v>3622021.391884703</v>
+        <v>3622021.471058111</v>
       </c>
       <c r="E36" t="n">
         <v>3622021.391884703</v>
@@ -1138,7 +1138,7 @@
         <v>-1075.547138125464</v>
       </c>
       <c r="D37" t="n">
-        <v>-1075.547138125464</v>
+        <v>-1075.547170108468</v>
       </c>
       <c r="E37" t="n">
         <v>-1075.547138125464</v>
@@ -1176,7 +1176,7 @@
         <v>-4615.424226804123</v>
       </c>
       <c r="D39" t="n">
-        <v>-4615.424226804123</v>
+        <v>-4615.424220494614</v>
       </c>
       <c r="E39" t="n">
         <v>-4615.424226804125</v>
@@ -1271,7 +1271,7 @@
         <v>-17869.04493332154</v>
       </c>
       <c r="D44" t="n">
-        <v>-17869.04493332154</v>
+        <v>-17869.04494702119</v>
       </c>
       <c r="E44" t="n">
         <v>-17869.04493332158</v>
@@ -1328,7 +1328,7 @@
         <v>-79122.65991372161</v>
       </c>
       <c r="D47" t="n">
-        <v>-79122.65991372155</v>
+        <v>-79122.65965017435</v>
       </c>
       <c r="E47" t="n">
         <v>-79122.65991372157</v>
@@ -1366,7 +1366,7 @@
         <v>-9354.864368435869</v>
       </c>
       <c r="D49" t="n">
-        <v>-9354.864368435869</v>
+        <v>-9354.864367797762</v>
       </c>
       <c r="E49" t="n">
         <v>-9354.864368435872</v>
@@ -1461,7 +1461,7 @@
         <v>-8471.957300266935</v>
       </c>
       <c r="D54" t="n">
-        <v>-8471.957300271906</v>
+        <v>-8471.957300472795</v>
       </c>
       <c r="E54" t="n">
         <v>-8471.957300271079</v>
@@ -1480,7 +1480,7 @@
         <v>-100.632234607892</v>
       </c>
       <c r="D55" t="n">
-        <v>-100.632234607892</v>
+        <v>-100.632235448108</v>
       </c>
       <c r="E55" t="n">
         <v>-100.6322346078919</v>
@@ -1499,7 +1499,7 @@
         <v>-2177.79604124311</v>
       </c>
       <c r="D56" t="n">
-        <v>-2177.79604124311</v>
+        <v>-2177.796054194966</v>
       </c>
       <c r="E56" t="n">
         <v>-2177.796041243111</v>
@@ -1537,7 +1537,7 @@
         <v>12657.77076330444</v>
       </c>
       <c r="D58" t="n">
-        <v>12657.77076330999</v>
+        <v>12657.77083203146</v>
       </c>
       <c r="E58" t="n">
         <v>12657.77076330998</v>
